--- a/hasil_data_uji.xlsx
+++ b/hasil_data_uji.xlsx
@@ -37,10 +37,10 @@
     <t>Waspada</t>
   </si>
   <si>
-    <t>Awas</t>
+    <t>Siaga</t>
   </si>
   <si>
-    <t>Siaga</t>
+    <t>Awas</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -520,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -537,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -656,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -673,7 +673,7 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -690,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -724,7 +724,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -758,7 +758,7 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -792,7 +792,7 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -809,7 +809,7 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -826,7 +826,7 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -843,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -860,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -877,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -894,7 +894,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -911,7 +911,7 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -928,7 +928,7 @@
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -945,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -962,7 +962,7 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -979,7 +979,7 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -996,7 +996,7 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1013,7 +1013,7 @@
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1030,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1098,7 +1098,7 @@
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1115,7 +1115,7 @@
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1132,7 +1132,7 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1149,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1183,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1200,7 +1200,7 @@
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1217,7 +1217,7 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1234,7 +1234,7 @@
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1268,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1285,7 +1285,7 @@
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1302,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1319,7 +1319,7 @@
         <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1336,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1353,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1370,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1387,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1404,7 +1404,7 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1421,7 +1421,7 @@
         <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1438,7 +1438,7 @@
         <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1455,7 +1455,7 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1472,7 +1472,7 @@
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1489,7 +1489,7 @@
         <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1506,7 +1506,7 @@
         <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1557,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1608,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1625,7 +1625,7 @@
         <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1659,7 +1659,7 @@
         <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1676,7 +1676,7 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1693,7 +1693,7 @@
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1710,7 +1710,7 @@
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1727,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1744,7 +1744,7 @@
         <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1761,7 +1761,7 @@
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1778,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1795,7 +1795,7 @@
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1812,7 +1812,7 @@
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1829,7 +1829,7 @@
         <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1846,7 +1846,7 @@
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
